--- a/18127259/SortingAlgorithms/Data1.xlsx
+++ b/18127259/SortingAlgorithms/Data1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\CongHau\HCMUS\2nd Year\1st Semester\Cau truc du lieu &amp; Giai thuat\Thuc hanh\Week 03\Sorting-Algorithms\18127259\SortingAlgorithms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\CongHau\HCMUS\2nd Year\1st Semester\Cau truc du lieu &amp; Giai thuat\Lab\Week 03\Sorting-Algorithms\18127259\SortingAlgorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772DFB0B-6B75-455B-A628-AA061D22B78F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586810BC-67F2-43D8-88FC-6463B52FEBE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Random" sheetId="2" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="Nearly-Sorted" sheetId="4" r:id="rId3"/>
     <sheet name="Reverse" sheetId="5" r:id="rId4"/>
     <sheet name="Data1" sheetId="1" r:id="rId5"/>
+    <sheet name="Time complexity" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="34">
   <si>
     <t>Run time in miliseconds</t>
   </si>
@@ -93,6 +94,39 @@
   </si>
   <si>
     <t>100000</t>
+  </si>
+  <si>
+    <t>O(n^2)</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>Best</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Worst</t>
+  </si>
+  <si>
+    <t>Time complexity</t>
+  </si>
+  <si>
+    <t>O(n + k)</t>
+  </si>
+  <si>
+    <t>O(n * logn)</t>
+  </si>
+  <si>
+    <t>O(n * (logn)^2)</t>
+  </si>
+  <si>
+    <t>O(n * k)</t>
+  </si>
+  <si>
+    <t>O(n)</t>
   </si>
 </sst>
 </file>
@@ -235,7 +269,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,6 +447,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -687,7 +727,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -707,6 +747,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -752,44 +802,205 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="46">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -941,26 +1152,39 @@
       </border>
     </dxf>
     <dxf>
-      <border>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1099,26 +1323,39 @@
       </border>
     </dxf>
     <dxf>
-      <border>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1257,13 +1494,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1277,141 +1507,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -1422,23 +1517,25 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF3300"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1520,7 +1617,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Insertion sort</c:v>
+                  <c:v>Flash sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1567,19 +1664,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.94779999999999998</c:v>
+                  <c:v>0.223</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.2030999999999992</c:v>
+                  <c:v>0.69920000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>96.474500000000006</c:v>
+                  <c:v>1.881</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>640.81799999999998</c:v>
+                  <c:v>5.1993999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7814.68</c:v>
+                  <c:v>18.371099999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1600,7 +1697,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Binary insertion sort</c:v>
+                  <c:v>Shell sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1647,19 +1744,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.86529999999999996</c:v>
+                  <c:v>0.2089</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.542300000000001</c:v>
+                  <c:v>0.60629999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>74.669499999999999</c:v>
+                  <c:v>1.9792000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>420.98</c:v>
+                  <c:v>7.3818000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5071.79</c:v>
+                  <c:v>28.938400000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1680,7 +1777,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Bubble sort</c:v>
+                  <c:v>Quick sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1727,19 +1824,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>36.668199999999999</c:v>
+                  <c:v>0.61170000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>353.803</c:v>
+                  <c:v>1.2273000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3004.8</c:v>
+                  <c:v>4.6715</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26310.7</c:v>
+                  <c:v>15.7826</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>290594</c:v>
+                  <c:v>58.375999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1760,7 +1857,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Shaker sort</c:v>
+                  <c:v>Merge sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1807,19 +1904,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>39.639000000000003</c:v>
+                  <c:v>1.3928</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>272.21899999999999</c:v>
+                  <c:v>2.5880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2339.85</c:v>
+                  <c:v>9.4924999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20965.900000000001</c:v>
+                  <c:v>27.592600000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>233347</c:v>
+                  <c:v>99.808400000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1840,7 +1937,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Shell sort</c:v>
+                  <c:v>Radix sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1887,19 +1984,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.2089</c:v>
+                  <c:v>1.2875000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60629999999999995</c:v>
+                  <c:v>3.1093000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9792000000000001</c:v>
+                  <c:v>11.671799999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.3818000000000001</c:v>
+                  <c:v>33.696800000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.938400000000001</c:v>
+                  <c:v>115.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2002,7 +2099,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Merge sort</c:v>
+                  <c:v>Binary insertion sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2051,19 +2148,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.3928</c:v>
+                  <c:v>0.86529999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5880000000000001</c:v>
+                  <c:v>18.542300000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.4924999999999997</c:v>
+                  <c:v>74.669499999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.592600000000001</c:v>
+                  <c:v>420.98</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99.808400000000006</c:v>
+                  <c:v>5071.79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2084,7 +2181,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Quick sort</c:v>
+                  <c:v>Insertion sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2133,19 +2230,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.61170000000000002</c:v>
+                  <c:v>0.94779999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2273000000000001</c:v>
+                  <c:v>9.2030999999999992</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6715</c:v>
+                  <c:v>96.474500000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.7826</c:v>
+                  <c:v>640.81799999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58.375999999999998</c:v>
+                  <c:v>7814.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2166,7 +2263,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Counting sort</c:v>
+                  <c:v>Selection sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2215,19 +2312,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.17030000000000001</c:v>
+                  <c:v>1.5206</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3901</c:v>
+                  <c:v>16.652799999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.206</c:v>
+                  <c:v>146.327</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3456000000000001</c:v>
+                  <c:v>1258.29</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.973699999999999</c:v>
+                  <c:v>13895.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2248,7 +2345,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Radix sort</c:v>
+                  <c:v>Shaker sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2297,19 +2394,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.2875000000000001</c:v>
+                  <c:v>39.639000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1093000000000002</c:v>
+                  <c:v>272.21899999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.671799999999999</c:v>
+                  <c:v>2339.85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.696800000000003</c:v>
+                  <c:v>20965.900000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>115.55</c:v>
+                  <c:v>233347</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2330,7 +2427,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Flash sort</c:v>
+                  <c:v>Bubble sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2379,19 +2476,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.223</c:v>
+                  <c:v>36.668199999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.69920000000000004</c:v>
+                  <c:v>353.803</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.881</c:v>
+                  <c:v>3004.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.1993999999999998</c:v>
+                  <c:v>26310.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.371099999999998</c:v>
+                  <c:v>290594</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2432,7 +2529,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Selection sort</c:v>
+                        <c:v>Counting sort</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2491,19 +2588,19 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>1.5206</c:v>
+                        <c:v>0.17030000000000001</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>16.652799999999999</c:v>
+                        <c:v>0.3901</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>146.327</c:v>
+                        <c:v>1.206</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>1258.29</c:v>
+                        <c:v>3.3456000000000001</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>13895.4</c:v>
+                        <c:v>10.973699999999999</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2936,7 +3033,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Binary insertion sort</c:v>
+                  <c:v>Shell sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2983,19 +3080,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9.7100000000000006E-2</c:v>
+                  <c:v>3.27E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2195</c:v>
+                  <c:v>0.1193</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0365</c:v>
+                  <c:v>0.7732</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2303000000000002</c:v>
+                  <c:v>1.6092</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.254200000000001</c:v>
+                  <c:v>6.1803999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3016,7 +3113,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Bubble sort</c:v>
+                  <c:v>Binary insertion sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3063,19 +3160,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.5634999999999999</c:v>
+                  <c:v>9.7100000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.1569</c:v>
+                  <c:v>0.2195</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>153.68100000000001</c:v>
+                  <c:v>1.0365</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1426.23</c:v>
+                  <c:v>3.2303000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15006</c:v>
+                  <c:v>10.254200000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3096,7 +3193,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Shaker sort</c:v>
+                  <c:v>Counting sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3143,19 +3240,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.8E-3</c:v>
+                  <c:v>0.22819999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.04E-2</c:v>
+                  <c:v>0.39500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.32E-2</c:v>
+                  <c:v>1.3959999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.6400000000000005E-2</c:v>
+                  <c:v>3.7585000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.30769999999999997</c:v>
+                  <c:v>12.7179</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3176,7 +3273,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Shell sort</c:v>
+                  <c:v>Flash sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3223,19 +3320,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.27E-2</c:v>
+                  <c:v>0.1792</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1193</c:v>
+                  <c:v>0.62009999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7732</c:v>
+                  <c:v>2.0457999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6092</c:v>
+                  <c:v>5.5837000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.1803999999999997</c:v>
+                  <c:v>17.8278</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3256,7 +3353,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Heap sort</c:v>
+                  <c:v>Quick sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3305,19 +3402,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.1672</c:v>
+                  <c:v>0.1389</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9607999999999999</c:v>
+                  <c:v>0.90410000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.0867</c:v>
+                  <c:v>1.778</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55.768000000000001</c:v>
+                  <c:v>4.9562999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>168.34899999999999</c:v>
+                  <c:v>20.494800000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3420,7 +3517,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Quick sort</c:v>
+                  <c:v>Radix sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3469,19 +3566,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.1389</c:v>
+                  <c:v>0.7651</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90410000000000001</c:v>
+                  <c:v>2.9916</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.778</c:v>
+                  <c:v>9.7011000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9562999999999997</c:v>
+                  <c:v>37.058799999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.494800000000001</c:v>
+                  <c:v>114.54300000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3502,7 +3599,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Counting sort</c:v>
+                  <c:v>Heap sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3551,19 +3648,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.22819999999999999</c:v>
+                  <c:v>1.1672</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.39500000000000002</c:v>
+                  <c:v>3.9607999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3959999999999999</c:v>
+                  <c:v>15.0867</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.7585000000000002</c:v>
+                  <c:v>55.768000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.7179</c:v>
+                  <c:v>168.34899999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3584,7 +3681,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Radix sort</c:v>
+                  <c:v>Selection sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3633,19 +3730,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.7651</c:v>
+                  <c:v>1.6941999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9916</c:v>
+                  <c:v>13.429500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.7011000000000003</c:v>
+                  <c:v>145.06</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.058799999999998</c:v>
+                  <c:v>1281.6400000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>114.54300000000001</c:v>
+                  <c:v>14007.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3666,7 +3763,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Flash sort</c:v>
+                  <c:v>Bubble sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3715,19 +3812,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.1792</c:v>
+                  <c:v>1.5634999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.62009999999999998</c:v>
+                  <c:v>14.1569</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0457999999999998</c:v>
+                  <c:v>153.68100000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.5837000000000003</c:v>
+                  <c:v>1426.23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.8278</c:v>
+                  <c:v>15006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3768,7 +3865,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Selection sort</c:v>
+                        <c:v>Shaker sort</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -3827,19 +3924,19 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>1.6941999999999999</c:v>
+                        <c:v>3.8E-3</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>13.429500000000001</c:v>
+                        <c:v>1.04E-2</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>145.06</c:v>
+                        <c:v>3.32E-2</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>1281.6400000000001</c:v>
+                        <c:v>8.6400000000000005E-2</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>14007.1</c:v>
+                        <c:v>0.30769999999999997</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4192,7 +4289,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Selection sort</c:v>
+                  <c:v>Insertion sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4239,19 +4336,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.5511999999999999</c:v>
+                  <c:v>9.5799999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.623900000000001</c:v>
+                  <c:v>0.21079999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>140.42699999999999</c:v>
+                  <c:v>0.30640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1261.58</c:v>
+                  <c:v>0.76549999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13963.2</c:v>
+                  <c:v>1.3127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4272,7 +4369,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Insertion sort</c:v>
+                  <c:v>Shell sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4319,19 +4416,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9.5799999999999996E-2</c:v>
+                  <c:v>6.6799999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21079999999999999</c:v>
+                  <c:v>0.23139999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30640000000000001</c:v>
+                  <c:v>0.9032</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.76549999999999996</c:v>
+                  <c:v>2.8431999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3127</c:v>
+                  <c:v>6.8517000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4352,7 +4449,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Binary insertion sort</c:v>
+                  <c:v>Counting sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4399,19 +4496,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.11219999999999999</c:v>
+                  <c:v>0.10630000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25219999999999998</c:v>
+                  <c:v>0.32300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97570000000000001</c:v>
+                  <c:v>1.5748</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9411</c:v>
+                  <c:v>3.9113000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.405900000000001</c:v>
+                  <c:v>11.333399999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4432,7 +4529,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Bubble sort</c:v>
+                  <c:v>Binary insertion sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4479,19 +4576,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.2035999999999998</c:v>
+                  <c:v>0.11219999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.625699999999998</c:v>
+                  <c:v>0.25219999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>161.167</c:v>
+                  <c:v>0.97570000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1375.33</c:v>
+                  <c:v>2.9411</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15041.4</c:v>
+                  <c:v>12.405900000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4512,7 +4609,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Shaker sort</c:v>
+                  <c:v>Flash sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4559,19 +4656,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.58479999999999999</c:v>
+                  <c:v>0.23069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.254</c:v>
+                  <c:v>0.54910000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.1483000000000008</c:v>
+                  <c:v>1.6097999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.034800000000001</c:v>
+                  <c:v>4.7324999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.928000000000001</c:v>
+                  <c:v>17.471699999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4592,7 +4689,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Shell sort</c:v>
+                  <c:v>Quick sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4641,19 +4738,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6.6799999999999998E-2</c:v>
+                  <c:v>0.39429999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23139999999999999</c:v>
+                  <c:v>0.70269999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9032</c:v>
+                  <c:v>1.6896</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8431999999999999</c:v>
+                  <c:v>4.7427000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.8517000000000001</c:v>
+                  <c:v>19.387699999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4674,7 +4771,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Heap sort</c:v>
+                  <c:v>Shaker sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4723,19 +4820,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.9661</c:v>
+                  <c:v>0.58479999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1181999999999999</c:v>
+                  <c:v>2.254</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.616400000000001</c:v>
+                  <c:v>9.1483000000000008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44.367699999999999</c:v>
+                  <c:v>19.034800000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>167.589</c:v>
+                  <c:v>21.928000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4838,7 +4935,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Quick sort</c:v>
+                  <c:v>Radix sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4887,19 +4984,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.39429999999999998</c:v>
+                  <c:v>0.75019999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.70269999999999999</c:v>
+                  <c:v>2.8967999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6896</c:v>
+                  <c:v>9.1475000000000009</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.7427000000000001</c:v>
+                  <c:v>35.575699999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.387699999999999</c:v>
+                  <c:v>114.206</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4920,7 +5017,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Counting sort</c:v>
+                  <c:v>Heap sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4969,19 +5066,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.10630000000000001</c:v>
+                  <c:v>1.9661</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32300000000000001</c:v>
+                  <c:v>4.1181999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5748</c:v>
+                  <c:v>13.616400000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9113000000000002</c:v>
+                  <c:v>44.367699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.333399999999999</c:v>
+                  <c:v>167.589</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5002,7 +5099,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Radix sort</c:v>
+                  <c:v>Selection sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5051,19 +5148,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.75019999999999998</c:v>
+                  <c:v>1.5511999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8967999999999998</c:v>
+                  <c:v>13.623900000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.1475000000000009</c:v>
+                  <c:v>140.42699999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.575699999999998</c:v>
+                  <c:v>1261.58</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>114.206</c:v>
+                  <c:v>13963.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5084,7 +5181,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Flash sort</c:v>
+                  <c:v>Bubble sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5134,19 +5231,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.23069999999999999</c:v>
+                  <c:v>2.2035999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.54910000000000003</c:v>
+                  <c:v>16.625699999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6097999999999999</c:v>
+                  <c:v>161.167</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.7324999999999999</c:v>
+                  <c:v>1375.33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.471699999999998</c:v>
+                  <c:v>15041.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5611,7 +5708,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Selection sort</c:v>
+                  <c:v>Shell sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5658,19 +5755,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.6211</c:v>
+                  <c:v>0.124</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.8614</c:v>
+                  <c:v>0.17879999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>143.15299999999999</c:v>
+                  <c:v>0.85519999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1275.75</c:v>
+                  <c:v>2.1987999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14100.2</c:v>
+                  <c:v>8.6019000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5691,7 +5788,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Insertion sort</c:v>
+                  <c:v>Counting sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5738,19 +5835,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.5524</c:v>
+                  <c:v>0.23769999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.9764</c:v>
+                  <c:v>0.43719999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>142.499</c:v>
+                  <c:v>1.3817999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1276.76</c:v>
+                  <c:v>3.6839</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14105.7</c:v>
+                  <c:v>12.179600000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5771,7 +5868,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Binary insertion sort</c:v>
+                  <c:v>Flash sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5818,19 +5915,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.1186</c:v>
+                  <c:v>0.24929999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.6218000000000004</c:v>
+                  <c:v>0.70950000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>91.314700000000002</c:v>
+                  <c:v>1.9732000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>834.12</c:v>
+                  <c:v>5.5353000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9380.02</c:v>
+                  <c:v>20.861999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5851,7 +5948,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Bubble sort</c:v>
+                  <c:v>Quick sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5898,19 +5995,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>55.0349</c:v>
+                  <c:v>0.35809999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>496.74599999999998</c:v>
+                  <c:v>0.75719999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5524.79</c:v>
+                  <c:v>2.4529999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49681.4</c:v>
+                  <c:v>7.2411000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>554377</c:v>
+                  <c:v>26.216899999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5931,7 +6028,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Shaker sort</c:v>
+                  <c:v>Merge sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5978,19 +6075,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>48.353200000000001</c:v>
+                  <c:v>1.1521999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>392.93799999999999</c:v>
+                  <c:v>2.6246999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4403.9399999999996</c:v>
+                  <c:v>8.2790999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39721.4</c:v>
+                  <c:v>23.856300000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>444398</c:v>
+                  <c:v>91.141000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6011,7 +6108,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Shell sort</c:v>
+                  <c:v>Radix sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6060,19 +6157,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.124</c:v>
+                  <c:v>0.85499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17879999999999999</c:v>
+                  <c:v>2.8386999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85519999999999996</c:v>
+                  <c:v>9.9991000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1987999999999999</c:v>
+                  <c:v>34.835700000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.6019000000000005</c:v>
+                  <c:v>115.82899999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6175,7 +6272,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Merge sort</c:v>
+                  <c:v>Binary insertion sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6224,19 +6321,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.1521999999999999</c:v>
+                  <c:v>1.1186</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6246999999999998</c:v>
+                  <c:v>8.6218000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.2790999999999997</c:v>
+                  <c:v>91.314700000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.856300000000001</c:v>
+                  <c:v>834.12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>91.141000000000005</c:v>
+                  <c:v>9380.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6257,7 +6354,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Quick sort</c:v>
+                  <c:v>Selection sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6306,19 +6403,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.35809999999999997</c:v>
+                  <c:v>1.6211</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.75719999999999998</c:v>
+                  <c:v>13.8614</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4529999999999998</c:v>
+                  <c:v>143.15299999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.2411000000000003</c:v>
+                  <c:v>1275.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.216899999999999</c:v>
+                  <c:v>14100.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6339,7 +6436,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Counting sort</c:v>
+                  <c:v>Insertion sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6388,19 +6485,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.23769999999999999</c:v>
+                  <c:v>1.5524</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.43719999999999998</c:v>
+                  <c:v>12.9764</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3817999999999999</c:v>
+                  <c:v>142.499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6839</c:v>
+                  <c:v>1276.76</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.179600000000001</c:v>
+                  <c:v>14105.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6421,7 +6518,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Radix sort</c:v>
+                  <c:v>Shaker sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6470,19 +6567,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.85499999999999998</c:v>
+                  <c:v>48.353200000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8386999999999998</c:v>
+                  <c:v>392.93799999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.9991000000000003</c:v>
+                  <c:v>4403.9399999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.835700000000003</c:v>
+                  <c:v>39721.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>115.82899999999999</c:v>
+                  <c:v>444398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6503,7 +6600,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Flash sort</c:v>
+                  <c:v>Bubble sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6553,19 +6650,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.24929999999999999</c:v>
+                  <c:v>55.0349</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.70950000000000002</c:v>
+                  <c:v>496.74599999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9732000000000001</c:v>
+                  <c:v>5524.79</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.5353000000000003</c:v>
+                  <c:v>49681.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.861999999999998</c:v>
+                  <c:v>554377</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9188,7 +9285,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0003BC5D-62DC-40F2-A913-17187DD713AB}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="71" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="77" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9199,7 +9296,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B5564E50-E0BD-4776-8E7A-35DB134034DA}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="71" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="77" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9210,7 +9307,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{4348FE98-C9E8-422C-855B-22210077C18D}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="71" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="77" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9221,7 +9318,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{891D8E5B-64C6-4E3F-8ABE-65DAA1DE746A}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="71" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="77" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9232,7 +9329,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8639577" cy="6238204"/>
+    <xdr:ext cx="8646721" cy="6246916"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -9265,7 +9362,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8639577" cy="6238204"/>
+    <xdr:ext cx="8646721" cy="6246916"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -9298,7 +9395,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8639577" cy="6238204"/>
+    <xdr:ext cx="8646721" cy="6246916"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -9331,7 +9428,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8639577" cy="6238204"/>
+    <xdr:ext cx="8646721" cy="6246916"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -9361,60 +9458,72 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C552EC9-A42A-47D1-BB86-D86369DB8BE1}" name="Table1" displayName="Table1" ref="A3:F15" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="38" tableBorderDxfId="39" totalsRowBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C552EC9-A42A-47D1-BB86-D86369DB8BE1}" name="Table1" displayName="Table1" ref="A3:F15" totalsRowShown="0" headerRowDxfId="45" headerRowBorderDxfId="44" tableBorderDxfId="43" totalsRowBorderDxfId="42">
   <autoFilter ref="A3:F15" xr:uid="{BFCF4139-BC6C-4704-B88D-C22EA537A545}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F15">
+    <sortCondition ref="F3:F15"/>
+  </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7BB28175-4E41-45C2-BA7E-B82BEAAD821A}" name="RANDOM DATA" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{16AE3BFD-3CBD-4489-887F-DC0E22CEB33D}" name="1000" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{74B2B67E-91AB-4DBB-B42D-6618CCFE2007}" name="3000" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{798F8A0E-023B-4C74-AD08-C05A6A3CE199}" name="10000" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{DC0EB67F-DAD5-4406-8438-D5B80475B9E3}" name="30000" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{98F6A79C-9BE6-419D-929D-0EC05A84783E}" name="100000" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{7BB28175-4E41-45C2-BA7E-B82BEAAD821A}" name="RANDOM DATA" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{16AE3BFD-3CBD-4489-887F-DC0E22CEB33D}" name="1000" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{74B2B67E-91AB-4DBB-B42D-6618CCFE2007}" name="3000" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{798F8A0E-023B-4C74-AD08-C05A6A3CE199}" name="10000" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{DC0EB67F-DAD5-4406-8438-D5B80475B9E3}" name="30000" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{98F6A79C-9BE6-419D-929D-0EC05A84783E}" name="100000" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{362ED210-E5D6-4B12-A83D-DF452A2934BB}" name="Table2" displayName="Table2" ref="A17:F29" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="29" tableBorderDxfId="30" totalsRowBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{362ED210-E5D6-4B12-A83D-DF452A2934BB}" name="Table2" displayName="Table2" ref="A17:F29" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="32">
   <autoFilter ref="A17:F29" xr:uid="{20484D0F-A69B-46EC-A548-942F09EB13A5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:F29">
+    <sortCondition ref="F17:F29"/>
+  </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{DFE7D6E4-83BB-43B2-BF77-FDA7D1559AD1}" name="SORTED DATA" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{D1DA68D8-6DA5-4F04-BAC7-B5F0018BCA75}" name="1000" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{EB7BF106-550B-48E6-8FCE-0A696FECEC73}" name="3000" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{4C565B54-8B81-4E0A-9229-0AC8E53ED8C2}" name="10000" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{812FEA0E-B3DB-4E94-A038-BEB53F987CD0}" name="30000" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{A2338702-5E15-4FAE-B482-894C755D409E}" name="100000" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{DFE7D6E4-83BB-43B2-BF77-FDA7D1559AD1}" name="SORTED DATA" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{D1DA68D8-6DA5-4F04-BAC7-B5F0018BCA75}" name="1000" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{EB7BF106-550B-48E6-8FCE-0A696FECEC73}" name="3000" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{4C565B54-8B81-4E0A-9229-0AC8E53ED8C2}" name="10000" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{812FEA0E-B3DB-4E94-A038-BEB53F987CD0}" name="30000" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{A2338702-5E15-4FAE-B482-894C755D409E}" name="100000" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5D7652C6-E74F-4560-9CB9-89903DB40B37}" name="Table3" displayName="Table3" ref="A31:F43" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="20" tableBorderDxfId="21" totalsRowBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5D7652C6-E74F-4560-9CB9-89903DB40B37}" name="Table3" displayName="Table3" ref="A31:F43" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
   <autoFilter ref="A31:F43" xr:uid="{5632283D-14FB-46FB-A8E5-F4C663410CA2}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A32:F43">
+    <sortCondition ref="F31:F43"/>
+  </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7D1A30C3-EB2C-4EB0-A15D-F505791254ED}" name="NEARLY SORTED DATA" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{0BD68CE1-B56B-4F21-A87F-E6EE659B7C11}" name="1000" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{7E28AFF1-F002-409A-B9B6-89E7064636A8}" name="3000" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{9D0DF228-465C-4B51-82AB-AC7C9F69E27E}" name="10000" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{C93C2FB5-5559-4C47-A287-60826C136825}" name="30000" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{B532574D-60A0-4A55-A749-2E2B9E501A25}" name="100000" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{7D1A30C3-EB2C-4EB0-A15D-F505791254ED}" name="NEARLY SORTED DATA" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{0BD68CE1-B56B-4F21-A87F-E6EE659B7C11}" name="1000" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{7E28AFF1-F002-409A-B9B6-89E7064636A8}" name="3000" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{9D0DF228-465C-4B51-82AB-AC7C9F69E27E}" name="10000" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{C93C2FB5-5559-4C47-A287-60826C136825}" name="30000" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{B532574D-60A0-4A55-A749-2E2B9E501A25}" name="100000" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F5B4A607-EF01-4E78-80D8-B88798F2DE8C}" name="Table4" displayName="Table4" ref="A45:F57" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F5B4A607-EF01-4E78-80D8-B88798F2DE8C}" name="Table4" displayName="Table4" ref="A45:F57" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <autoFilter ref="A45:F57" xr:uid="{EE32F199-F3BF-45FA-9C79-1ED3223925FA}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A46:F57">
+    <sortCondition ref="F45:F57"/>
+  </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{13D1982D-344F-4EBA-864F-DA4E521F17E9}" name="REVERSE DATA" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{64A49C4B-7318-4D42-856C-DED2ED3FF242}" name="1000" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{5A87C8C8-726D-4C3C-A781-978E4F7AC5DD}" name="3000" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{6E087DA2-3D08-4BE0-9C7F-5C5A20673576}" name="10000" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{F3D092A7-221A-42B0-BB44-6232B7805C44}" name="30000" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{E3B6E574-F6A1-446E-B7EF-1FA0638A4CE2}" name="100000" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{13D1982D-344F-4EBA-864F-DA4E521F17E9}" name="REVERSE DATA" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{64A49C4B-7318-4D42-856C-DED2ED3FF242}" name="1000" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{5A87C8C8-726D-4C3C-A781-978E4F7AC5DD}" name="3000" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{6E087DA2-3D08-4BE0-9C7F-5C5A20673576}" name="10000" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{F3D092A7-221A-42B0-BB44-6232B7805C44}" name="30000" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{E3B6E574-F6A1-446E-B7EF-1FA0638A4CE2}" name="100000" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9719,8 +9828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9759,122 +9868,122 @@
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2">
-        <v>1.5206</v>
+        <v>0.17030000000000001</v>
       </c>
       <c r="C4" s="2">
-        <v>16.652799999999999</v>
+        <v>0.3901</v>
       </c>
       <c r="D4" s="2">
-        <v>146.327</v>
+        <v>1.206</v>
       </c>
       <c r="E4" s="2">
-        <v>1258.29</v>
+        <v>3.3456000000000001</v>
       </c>
       <c r="F4" s="3">
-        <v>13895.4</v>
+        <v>10.973699999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2">
-        <v>0.94779999999999998</v>
+        <v>0.223</v>
       </c>
       <c r="C5" s="2">
-        <v>9.2030999999999992</v>
+        <v>0.69920000000000004</v>
       </c>
       <c r="D5" s="2">
-        <v>96.474500000000006</v>
+        <v>1.881</v>
       </c>
       <c r="E5" s="2">
-        <v>640.81799999999998</v>
+        <v>5.1993999999999998</v>
       </c>
       <c r="F5" s="3">
-        <v>7814.68</v>
+        <v>18.371099999999998</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>0.86529999999999996</v>
+        <v>0.2089</v>
       </c>
       <c r="C6" s="2">
-        <v>18.542300000000001</v>
+        <v>0.60629999999999995</v>
       </c>
       <c r="D6" s="2">
-        <v>74.669499999999999</v>
+        <v>1.9792000000000001</v>
       </c>
       <c r="E6" s="2">
-        <v>420.98</v>
+        <v>7.3818000000000001</v>
       </c>
       <c r="F6" s="3">
-        <v>5071.79</v>
+        <v>28.938400000000001</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>36.668199999999999</v>
+        <v>0.61170000000000002</v>
       </c>
       <c r="C7" s="2">
-        <v>353.803</v>
+        <v>1.2273000000000001</v>
       </c>
       <c r="D7" s="2">
-        <v>3004.8</v>
+        <v>4.6715</v>
       </c>
       <c r="E7" s="2">
-        <v>26310.7</v>
+        <v>15.7826</v>
       </c>
       <c r="F7" s="3">
-        <v>290594</v>
+        <v>58.375999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>39.639000000000003</v>
+        <v>1.3928</v>
       </c>
       <c r="C8" s="2">
-        <v>272.21899999999999</v>
+        <v>2.5880000000000001</v>
       </c>
       <c r="D8" s="2">
-        <v>2339.85</v>
+        <v>9.4924999999999997</v>
       </c>
       <c r="E8" s="2">
-        <v>20965.900000000001</v>
+        <v>27.592600000000001</v>
       </c>
       <c r="F8" s="3">
-        <v>233347</v>
+        <v>99.808400000000006</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>0.2089</v>
+        <v>1.2875000000000001</v>
       </c>
       <c r="C9" s="2">
-        <v>0.60629999999999995</v>
+        <v>3.1093000000000002</v>
       </c>
       <c r="D9" s="2">
-        <v>1.9792000000000001</v>
+        <v>11.671799999999999</v>
       </c>
       <c r="E9" s="2">
-        <v>7.3818000000000001</v>
+        <v>33.696800000000003</v>
       </c>
       <c r="F9" s="3">
-        <v>28.938400000000001</v>
+        <v>115.55</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9899,102 +10008,102 @@
     </row>
     <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B11" s="2">
-        <v>1.3928</v>
+        <v>0.86529999999999996</v>
       </c>
       <c r="C11" s="2">
-        <v>2.5880000000000001</v>
+        <v>18.542300000000001</v>
       </c>
       <c r="D11" s="2">
-        <v>9.4924999999999997</v>
+        <v>74.669499999999999</v>
       </c>
       <c r="E11" s="2">
-        <v>27.592600000000001</v>
+        <v>420.98</v>
       </c>
       <c r="F11" s="3">
-        <v>99.808400000000006</v>
+        <v>5071.79</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>0.61170000000000002</v>
+        <v>0.94779999999999998</v>
       </c>
       <c r="C12" s="2">
-        <v>1.2273000000000001</v>
+        <v>9.2030999999999992</v>
       </c>
       <c r="D12" s="2">
-        <v>4.6715</v>
+        <v>96.474500000000006</v>
       </c>
       <c r="E12" s="2">
-        <v>15.7826</v>
+        <v>640.81799999999998</v>
       </c>
       <c r="F12" s="3">
-        <v>58.375999999999998</v>
+        <v>7814.68</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B13" s="2">
-        <v>0.17030000000000001</v>
+        <v>1.5206</v>
       </c>
       <c r="C13" s="2">
-        <v>0.3901</v>
+        <v>16.652799999999999</v>
       </c>
       <c r="D13" s="2">
-        <v>1.206</v>
+        <v>146.327</v>
       </c>
       <c r="E13" s="2">
-        <v>3.3456000000000001</v>
+        <v>1258.29</v>
       </c>
       <c r="F13" s="3">
-        <v>10.973699999999999</v>
+        <v>13895.4</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B14" s="2">
-        <v>1.2875000000000001</v>
+        <v>39.639000000000003</v>
       </c>
       <c r="C14" s="2">
-        <v>3.1093000000000002</v>
+        <v>272.21899999999999</v>
       </c>
       <c r="D14" s="2">
-        <v>11.671799999999999</v>
+        <v>2339.85</v>
       </c>
       <c r="E14" s="2">
-        <v>33.696800000000003</v>
+        <v>20965.900000000001</v>
       </c>
       <c r="F14" s="3">
-        <v>115.55</v>
+        <v>233347</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B15" s="5">
-        <v>0.223</v>
+        <v>36.668199999999999</v>
       </c>
       <c r="C15" s="5">
-        <v>0.69920000000000004</v>
+        <v>353.803</v>
       </c>
       <c r="D15" s="5">
-        <v>1.881</v>
+        <v>3004.8</v>
       </c>
       <c r="E15" s="5">
-        <v>5.1993999999999998</v>
+        <v>26310.7</v>
       </c>
       <c r="F15" s="6">
-        <v>18.371099999999998</v>
+        <v>290594</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10020,22 +10129,22 @@
     </row>
     <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B18" s="2">
-        <v>1.6941999999999999</v>
+        <v>3.8E-3</v>
       </c>
       <c r="C18" s="2">
-        <v>13.429500000000001</v>
+        <v>1.04E-2</v>
       </c>
       <c r="D18" s="2">
-        <v>145.06</v>
+        <v>3.32E-2</v>
       </c>
       <c r="E18" s="2">
-        <v>1281.6400000000001</v>
+        <v>8.6400000000000005E-2</v>
       </c>
       <c r="F18" s="3">
-        <v>14007.1</v>
+        <v>0.30769999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10060,102 +10169,102 @@
     </row>
     <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B20" s="2">
-        <v>9.7100000000000006E-2</v>
+        <v>3.27E-2</v>
       </c>
       <c r="C20" s="2">
-        <v>0.2195</v>
+        <v>0.1193</v>
       </c>
       <c r="D20" s="2">
-        <v>1.0365</v>
+        <v>0.7732</v>
       </c>
       <c r="E20" s="2">
-        <v>3.2303000000000002</v>
+        <v>1.6092</v>
       </c>
       <c r="F20" s="3">
-        <v>10.254200000000001</v>
+        <v>6.1803999999999997</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" s="2">
-        <v>1.5634999999999999</v>
+        <v>9.7100000000000006E-2</v>
       </c>
       <c r="C21" s="2">
-        <v>14.1569</v>
+        <v>0.2195</v>
       </c>
       <c r="D21" s="2">
-        <v>153.68100000000001</v>
+        <v>1.0365</v>
       </c>
       <c r="E21" s="2">
-        <v>1426.23</v>
+        <v>3.2303000000000002</v>
       </c>
       <c r="F21" s="3">
-        <v>15006</v>
+        <v>10.254200000000001</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B22" s="2">
-        <v>3.8E-3</v>
+        <v>0.22819999999999999</v>
       </c>
       <c r="C22" s="2">
-        <v>1.04E-2</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="D22" s="2">
-        <v>3.32E-2</v>
+        <v>1.3959999999999999</v>
       </c>
       <c r="E22" s="2">
-        <v>8.6400000000000005E-2</v>
+        <v>3.7585000000000002</v>
       </c>
       <c r="F22" s="3">
-        <v>0.30769999999999997</v>
+        <v>12.7179</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B23" s="2">
-        <v>3.27E-2</v>
+        <v>0.1792</v>
       </c>
       <c r="C23" s="2">
-        <v>0.1193</v>
+        <v>0.62009999999999998</v>
       </c>
       <c r="D23" s="2">
-        <v>0.7732</v>
+        <v>2.0457999999999998</v>
       </c>
       <c r="E23" s="2">
-        <v>1.6092</v>
+        <v>5.5837000000000003</v>
       </c>
       <c r="F23" s="3">
-        <v>6.1803999999999997</v>
+        <v>17.8278</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B24" s="2">
-        <v>1.1672</v>
+        <v>0.1389</v>
       </c>
       <c r="C24" s="2">
-        <v>3.9607999999999999</v>
+        <v>0.90410000000000001</v>
       </c>
       <c r="D24" s="2">
-        <v>15.0867</v>
+        <v>1.778</v>
       </c>
       <c r="E24" s="2">
-        <v>55.768000000000001</v>
+        <v>4.9562999999999997</v>
       </c>
       <c r="F24" s="3">
-        <v>168.34899999999999</v>
+        <v>20.494800000000001</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10180,82 +10289,82 @@
     </row>
     <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B26" s="2">
-        <v>0.1389</v>
+        <v>0.7651</v>
       </c>
       <c r="C26" s="2">
-        <v>0.90410000000000001</v>
+        <v>2.9916</v>
       </c>
       <c r="D26" s="2">
-        <v>1.778</v>
+        <v>9.7011000000000003</v>
       </c>
       <c r="E26" s="2">
-        <v>4.9562999999999997</v>
+        <v>37.058799999999998</v>
       </c>
       <c r="F26" s="3">
-        <v>20.494800000000001</v>
+        <v>114.54300000000001</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B27" s="2">
-        <v>0.22819999999999999</v>
+        <v>1.1672</v>
       </c>
       <c r="C27" s="2">
-        <v>0.39500000000000002</v>
+        <v>3.9607999999999999</v>
       </c>
       <c r="D27" s="2">
-        <v>1.3959999999999999</v>
+        <v>15.0867</v>
       </c>
       <c r="E27" s="2">
-        <v>3.7585000000000002</v>
+        <v>55.768000000000001</v>
       </c>
       <c r="F27" s="3">
-        <v>12.7179</v>
+        <v>168.34899999999999</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B28" s="2">
-        <v>0.7651</v>
+        <v>1.6941999999999999</v>
       </c>
       <c r="C28" s="2">
-        <v>2.9916</v>
+        <v>13.429500000000001</v>
       </c>
       <c r="D28" s="2">
-        <v>9.7011000000000003</v>
+        <v>145.06</v>
       </c>
       <c r="E28" s="2">
-        <v>37.058799999999998</v>
+        <v>1281.6400000000001</v>
       </c>
       <c r="F28" s="3">
-        <v>114.54300000000001</v>
+        <v>14007.1</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B29" s="5">
-        <v>0.1792</v>
+        <v>1.5634999999999999</v>
       </c>
       <c r="C29" s="5">
-        <v>0.62009999999999998</v>
+        <v>14.1569</v>
       </c>
       <c r="D29" s="5">
-        <v>2.0457999999999998</v>
+        <v>153.68100000000001</v>
       </c>
       <c r="E29" s="5">
-        <v>5.5837000000000003</v>
+        <v>1426.23</v>
       </c>
       <c r="F29" s="6">
-        <v>17.8278</v>
+        <v>15006</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10281,142 +10390,142 @@
     </row>
     <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B32" s="2">
-        <v>1.5511999999999999</v>
+        <v>9.5799999999999996E-2</v>
       </c>
       <c r="C32" s="2">
-        <v>13.623900000000001</v>
+        <v>0.21079999999999999</v>
       </c>
       <c r="D32" s="2">
-        <v>140.42699999999999</v>
+        <v>0.30640000000000001</v>
       </c>
       <c r="E32" s="2">
-        <v>1261.58</v>
+        <v>0.76549999999999996</v>
       </c>
       <c r="F32" s="3">
-        <v>13963.2</v>
+        <v>1.3127</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B33" s="2">
-        <v>9.5799999999999996E-2</v>
+        <v>6.6799999999999998E-2</v>
       </c>
       <c r="C33" s="2">
-        <v>0.21079999999999999</v>
+        <v>0.23139999999999999</v>
       </c>
       <c r="D33" s="2">
-        <v>0.30640000000000001</v>
+        <v>0.9032</v>
       </c>
       <c r="E33" s="2">
-        <v>0.76549999999999996</v>
+        <v>2.8431999999999999</v>
       </c>
       <c r="F33" s="3">
-        <v>1.3127</v>
+        <v>6.8517000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B34" s="2">
-        <v>0.11219999999999999</v>
+        <v>0.10630000000000001</v>
       </c>
       <c r="C34" s="2">
-        <v>0.25219999999999998</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="D34" s="2">
-        <v>0.97570000000000001</v>
+        <v>1.5748</v>
       </c>
       <c r="E34" s="2">
-        <v>2.9411</v>
+        <v>3.9113000000000002</v>
       </c>
       <c r="F34" s="3">
-        <v>12.405900000000001</v>
+        <v>11.333399999999999</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35" s="2">
-        <v>2.2035999999999998</v>
+        <v>0.11219999999999999</v>
       </c>
       <c r="C35" s="2">
-        <v>16.625699999999998</v>
+        <v>0.25219999999999998</v>
       </c>
       <c r="D35" s="2">
-        <v>161.167</v>
+        <v>0.97570000000000001</v>
       </c>
       <c r="E35" s="2">
-        <v>1375.33</v>
+        <v>2.9411</v>
       </c>
       <c r="F35" s="3">
-        <v>15041.4</v>
+        <v>12.405900000000001</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B36" s="2">
-        <v>0.58479999999999999</v>
+        <v>0.23069999999999999</v>
       </c>
       <c r="C36" s="2">
-        <v>2.254</v>
+        <v>0.54910000000000003</v>
       </c>
       <c r="D36" s="2">
-        <v>9.1483000000000008</v>
+        <v>1.6097999999999999</v>
       </c>
       <c r="E36" s="2">
-        <v>19.034800000000001</v>
+        <v>4.7324999999999999</v>
       </c>
       <c r="F36" s="3">
-        <v>21.928000000000001</v>
+        <v>17.471699999999998</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B37" s="2">
-        <v>6.6799999999999998E-2</v>
+        <v>0.39429999999999998</v>
       </c>
       <c r="C37" s="2">
-        <v>0.23139999999999999</v>
+        <v>0.70269999999999999</v>
       </c>
       <c r="D37" s="2">
-        <v>0.9032</v>
+        <v>1.6896</v>
       </c>
       <c r="E37" s="2">
-        <v>2.8431999999999999</v>
+        <v>4.7427000000000001</v>
       </c>
       <c r="F37" s="3">
-        <v>6.8517000000000001</v>
+        <v>19.387699999999999</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B38" s="2">
-        <v>1.9661</v>
+        <v>0.58479999999999999</v>
       </c>
       <c r="C38" s="2">
-        <v>4.1181999999999999</v>
+        <v>2.254</v>
       </c>
       <c r="D38" s="2">
-        <v>13.616400000000001</v>
+        <v>9.1483000000000008</v>
       </c>
       <c r="E38" s="2">
-        <v>44.367699999999999</v>
+        <v>19.034800000000001</v>
       </c>
       <c r="F38" s="3">
-        <v>167.589</v>
+        <v>21.928000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10441,82 +10550,82 @@
     </row>
     <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B40" s="2">
-        <v>0.39429999999999998</v>
+        <v>0.75019999999999998</v>
       </c>
       <c r="C40" s="2">
-        <v>0.70269999999999999</v>
+        <v>2.8967999999999998</v>
       </c>
       <c r="D40" s="2">
-        <v>1.6896</v>
+        <v>9.1475000000000009</v>
       </c>
       <c r="E40" s="2">
-        <v>4.7427000000000001</v>
+        <v>35.575699999999998</v>
       </c>
       <c r="F40" s="3">
-        <v>19.387699999999999</v>
+        <v>114.206</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B41" s="2">
-        <v>0.10630000000000001</v>
+        <v>1.9661</v>
       </c>
       <c r="C41" s="2">
-        <v>0.32300000000000001</v>
+        <v>4.1181999999999999</v>
       </c>
       <c r="D41" s="2">
-        <v>1.5748</v>
+        <v>13.616400000000001</v>
       </c>
       <c r="E41" s="2">
-        <v>3.9113000000000002</v>
+        <v>44.367699999999999</v>
       </c>
       <c r="F41" s="3">
-        <v>11.333399999999999</v>
+        <v>167.589</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B42" s="2">
-        <v>0.75019999999999998</v>
+        <v>1.5511999999999999</v>
       </c>
       <c r="C42" s="2">
-        <v>2.8967999999999998</v>
+        <v>13.623900000000001</v>
       </c>
       <c r="D42" s="2">
-        <v>9.1475000000000009</v>
+        <v>140.42699999999999</v>
       </c>
       <c r="E42" s="2">
-        <v>35.575699999999998</v>
+        <v>1261.58</v>
       </c>
       <c r="F42" s="3">
-        <v>114.206</v>
+        <v>13963.2</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B43" s="5">
-        <v>0.23069999999999999</v>
+        <v>2.2035999999999998</v>
       </c>
       <c r="C43" s="5">
-        <v>0.54910000000000003</v>
+        <v>16.625699999999998</v>
       </c>
       <c r="D43" s="5">
-        <v>1.6097999999999999</v>
+        <v>161.167</v>
       </c>
       <c r="E43" s="5">
-        <v>4.7324999999999999</v>
+        <v>1375.33</v>
       </c>
       <c r="F43" s="6">
-        <v>17.471699999999998</v>
+        <v>15041.4</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10542,122 +10651,122 @@
     </row>
     <row r="46" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B46" s="2">
-        <v>1.6211</v>
+        <v>0.124</v>
       </c>
       <c r="C46" s="2">
-        <v>13.8614</v>
+        <v>0.17879999999999999</v>
       </c>
       <c r="D46" s="2">
-        <v>143.15299999999999</v>
+        <v>0.85519999999999996</v>
       </c>
       <c r="E46" s="2">
-        <v>1275.75</v>
+        <v>2.1987999999999999</v>
       </c>
       <c r="F46" s="3">
-        <v>14100.2</v>
+        <v>8.6019000000000005</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B47" s="2">
-        <v>1.5524</v>
+        <v>0.23769999999999999</v>
       </c>
       <c r="C47" s="2">
-        <v>12.9764</v>
+        <v>0.43719999999999998</v>
       </c>
       <c r="D47" s="2">
-        <v>142.499</v>
+        <v>1.3817999999999999</v>
       </c>
       <c r="E47" s="2">
-        <v>1276.76</v>
+        <v>3.6839</v>
       </c>
       <c r="F47" s="3">
-        <v>14105.7</v>
+        <v>12.179600000000001</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B48" s="2">
-        <v>1.1186</v>
+        <v>0.24929999999999999</v>
       </c>
       <c r="C48" s="2">
-        <v>8.6218000000000004</v>
+        <v>0.70950000000000002</v>
       </c>
       <c r="D48" s="2">
-        <v>91.314700000000002</v>
+        <v>1.9732000000000001</v>
       </c>
       <c r="E48" s="2">
-        <v>834.12</v>
+        <v>5.5353000000000003</v>
       </c>
       <c r="F48" s="3">
-        <v>9380.02</v>
+        <v>20.861999999999998</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B49" s="2">
-        <v>55.0349</v>
+        <v>0.35809999999999997</v>
       </c>
       <c r="C49" s="2">
-        <v>496.74599999999998</v>
+        <v>0.75719999999999998</v>
       </c>
       <c r="D49" s="2">
-        <v>5524.79</v>
+        <v>2.4529999999999998</v>
       </c>
       <c r="E49" s="2">
-        <v>49681.4</v>
+        <v>7.2411000000000003</v>
       </c>
       <c r="F49" s="3">
-        <v>554377</v>
+        <v>26.216899999999999</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B50" s="2">
-        <v>48.353200000000001</v>
+        <v>1.1521999999999999</v>
       </c>
       <c r="C50" s="2">
-        <v>392.93799999999999</v>
+        <v>2.6246999999999998</v>
       </c>
       <c r="D50" s="2">
-        <v>4403.9399999999996</v>
+        <v>8.2790999999999997</v>
       </c>
       <c r="E50" s="2">
-        <v>39721.4</v>
+        <v>23.856300000000001</v>
       </c>
       <c r="F50" s="3">
-        <v>444398</v>
+        <v>91.141000000000005</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B51" s="2">
-        <v>0.124</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="C51" s="2">
-        <v>0.17879999999999999</v>
+        <v>2.8386999999999998</v>
       </c>
       <c r="D51" s="2">
-        <v>0.85519999999999996</v>
+        <v>9.9991000000000003</v>
       </c>
       <c r="E51" s="2">
-        <v>2.1987999999999999</v>
+        <v>34.835700000000003</v>
       </c>
       <c r="F51" s="3">
-        <v>8.6019000000000005</v>
+        <v>115.82899999999999</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10682,102 +10791,102 @@
     </row>
     <row r="53" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B53" s="2">
-        <v>1.1521999999999999</v>
+        <v>1.1186</v>
       </c>
       <c r="C53" s="2">
-        <v>2.6246999999999998</v>
+        <v>8.6218000000000004</v>
       </c>
       <c r="D53" s="2">
-        <v>8.2790999999999997</v>
+        <v>91.314700000000002</v>
       </c>
       <c r="E53" s="2">
-        <v>23.856300000000001</v>
+        <v>834.12</v>
       </c>
       <c r="F53" s="3">
-        <v>91.141000000000005</v>
+        <v>9380.02</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B54" s="2">
-        <v>0.35809999999999997</v>
+        <v>1.6211</v>
       </c>
       <c r="C54" s="2">
-        <v>0.75719999999999998</v>
+        <v>13.8614</v>
       </c>
       <c r="D54" s="2">
-        <v>2.4529999999999998</v>
+        <v>143.15299999999999</v>
       </c>
       <c r="E54" s="2">
-        <v>7.2411000000000003</v>
+        <v>1275.75</v>
       </c>
       <c r="F54" s="3">
-        <v>26.216899999999999</v>
+        <v>14100.2</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B55" s="2">
-        <v>0.23769999999999999</v>
+        <v>1.5524</v>
       </c>
       <c r="C55" s="2">
-        <v>0.43719999999999998</v>
+        <v>12.9764</v>
       </c>
       <c r="D55" s="2">
-        <v>1.3817999999999999</v>
+        <v>142.499</v>
       </c>
       <c r="E55" s="2">
-        <v>3.6839</v>
+        <v>1276.76</v>
       </c>
       <c r="F55" s="3">
-        <v>12.179600000000001</v>
+        <v>14105.7</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B56" s="2">
-        <v>0.85499999999999998</v>
+        <v>48.353200000000001</v>
       </c>
       <c r="C56" s="2">
-        <v>2.8386999999999998</v>
+        <v>392.93799999999999</v>
       </c>
       <c r="D56" s="2">
-        <v>9.9991000000000003</v>
+        <v>4403.9399999999996</v>
       </c>
       <c r="E56" s="2">
-        <v>34.835700000000003</v>
+        <v>39721.4</v>
       </c>
       <c r="F56" s="3">
-        <v>115.82899999999999</v>
+        <v>444398</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B57" s="5">
-        <v>0.24929999999999999</v>
+        <v>55.0349</v>
       </c>
       <c r="C57" s="5">
-        <v>0.70950000000000002</v>
+        <v>496.74599999999998</v>
       </c>
       <c r="D57" s="5">
-        <v>1.9732000000000001</v>
+        <v>5524.79</v>
       </c>
       <c r="E57" s="5">
-        <v>5.5353000000000003</v>
+        <v>49681.4</v>
       </c>
       <c r="F57" s="6">
-        <v>20.861999999999998</v>
+        <v>554377</v>
       </c>
     </row>
   </sheetData>
@@ -10789,4 +10898,271 @@
     <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51EAE6A-727A-4392-AE7E-50D7891140E4}">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="24.5703125" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="11" width="24.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A1:D14">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="O(n * k)">
+      <formula>NOT(ISERROR(SEARCH("O(n * k)",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="O(n * logn)">
+      <formula>NOT(ISERROR(SEARCH("O(n * logn)",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="O(n * (logn)^2)">
+      <formula>NOT(ISERROR(SEARCH("O(n * (logn)^2)",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="O(n + k)">
+      <formula>NOT(ISERROR(SEARCH("O(n + k)",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="O(n)">
+      <formula>NOT(ISERROR(SEARCH("O(n)",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="O(n^2)">
+      <formula>NOT(ISERROR(SEARCH("O(n^2)",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>